--- a/stored_data/eliteserien/2023/fixture_data/Eliteserien_fixtures_defensivt.xlsx
+++ b/stored_data/eliteserien/2023/fixture_data/Eliteserien_fixtures_defensivt.xlsx
@@ -1450,7 +1450,7 @@
       <c r="G4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="106" t="s">
+      <c r="H4" s="109" t="s">
         <v>33</v>
       </c>
       <c r="I4" s="106" t="s">
@@ -1482,7 +1482,7 @@
       <c r="F5" s="108" t="s">
         <v>39</v>
       </c>
-      <c r="G5" s="104" t="s">
+      <c r="G5" s="103" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="108" t="s">
@@ -1491,7 +1491,7 @@
       <c r="I5" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="J5" s="109" t="s">
+      <c r="J5" s="106" t="s">
         <v>24</v>
       </c>
       <c r="K5" s="106" t="s">
@@ -1505,7 +1505,7 @@
       <c r="B6" s="102" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="106" t="s">
+      <c r="C6" s="103" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="106" t="s">
@@ -1564,7 +1564,7 @@
       <c r="J7" s="103" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="109" t="s">
+      <c r="K7" s="106" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1663,10 +1663,10 @@
       <c r="H10" s="103" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="109" t="s">
+      <c r="I10" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="106" t="s">
+      <c r="J10" s="103" t="s">
         <v>10</v>
       </c>
       <c r="K10" s="103" t="s">
@@ -1704,7 +1704,7 @@
       <c r="J11" s="109" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="106" t="s">
+      <c r="K11" s="109" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1727,7 +1727,7 @@
       <c r="F12" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="G12" s="106" t="s">
+      <c r="G12" s="103" t="s">
         <v>34</v>
       </c>
       <c r="H12" s="103" t="s">
@@ -1736,7 +1736,7 @@
       <c r="I12" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="J12" s="103" t="s">
+      <c r="J12" s="106" t="s">
         <v>16</v>
       </c>
       <c r="K12" s="106" t="s">
@@ -1794,7 +1794,7 @@
       <c r="E14" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="F14" s="103" t="s">
+      <c r="F14" s="106" t="s">
         <v>22</v>
       </c>
       <c r="G14" s="106" t="s">
@@ -1870,7 +1870,7 @@
       <c r="G16" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="103" t="s">
+      <c r="H16" s="104" t="s">
         <v>12</v>
       </c>
       <c r="I16" s="106" t="s">
@@ -1911,7 +1911,7 @@
       <c r="I17" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="J17" s="103" t="s">
+      <c r="J17" s="104" t="s">
         <v>29</v>
       </c>
       <c r="K17" s="103" t="s">
@@ -1946,7 +1946,7 @@
       <c r="I18" s="106" t="s">
         <v>50</v>
       </c>
-      <c r="J18" s="103" t="s">
+      <c r="J18" s="104" t="s">
         <v>12</v>
       </c>
       <c r="K18" s="106" t="s">
